--- a/PET data.xlsx
+++ b/PET data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Franco\from desktop 042312\DU\Teaching\18-19\Urban Ecohydraulics\Project data\evaporation data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gotmi\Documents\GitHub\GrandAnseBeach_SWMM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{357D42A2-5B87-4095-8EE3-30ECA996A98E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF248101-F704-498D-9C51-2D30225D2C8B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9576" xr2:uid="{4E7DB661-EB94-4550-955F-836F082BAB8A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9570" xr2:uid="{4E7DB661-EB94-4550-955F-836F082BAB8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -433,16 +433,16 @@
   <dimension ref="B2:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="26.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>12</v>
       </c>
@@ -456,7 +456,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -471,11 +471,11 @@
         <v>30</v>
       </c>
       <c r="F3">
-        <f>D3/30</f>
+        <f>D3/E3</f>
         <v>0.11293333333333333</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -490,11 +490,11 @@
         <v>28</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F14" si="1">D4/30</f>
-        <v>0.11806666666666664</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+        <f t="shared" ref="F4:F14" si="1">D4/E4</f>
+        <v>0.12649999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -510,10 +510,10 @@
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>0.15236666666666665</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+        <v>0.14745161290322581</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -532,7 +532,7 @@
         <v>0.161</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -548,10 +548,10 @@
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>0.16426666666666667</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+        <v>0.15896774193548388</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -570,7 +570,7 @@
         <v>0.1547</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -586,10 +586,10 @@
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>0.16613333333333333</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+        <v>0.1607741935483871</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>7</v>
       </c>
@@ -605,10 +605,10 @@
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>0.15796666666666664</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+        <v>0.15287096774193545</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>8</v>
       </c>
@@ -627,7 +627,7 @@
         <v>0.14349999999999999</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>9</v>
       </c>
@@ -643,10 +643,10 @@
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>0.12856666666666666</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+        <v>0.12441935483870967</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -665,7 +665,7 @@
         <v>0.10919999999999999</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>11</v>
       </c>
@@ -681,7 +681,7 @@
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>0.10943333333333333</v>
+        <v>0.1059032258064516</v>
       </c>
     </row>
   </sheetData>

--- a/PET data.xlsx
+++ b/PET data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gotmi\Documents\GitHub\GrandAnseBeach_SWMM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF248101-F704-498D-9C51-2D30225D2C8B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72BB2C0-5FF3-4451-AF6B-D75FE9B59806}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9570" xr2:uid="{4E7DB661-EB94-4550-955F-836F082BAB8A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9465" xr2:uid="{4E7DB661-EB94-4550-955F-836F082BAB8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -430,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6603D8F2-548F-4C35-A63B-ADD85DA91771}">
-  <dimension ref="B2:F14"/>
+  <dimension ref="B2:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,7 +442,7 @@
     <col min="4" max="4" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>12</v>
       </c>
@@ -456,7 +456,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -474,8 +474,11 @@
         <f>D3/E3</f>
         <v>0.11293333333333333</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>0.11293333333333333</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -493,8 +496,11 @@
         <f t="shared" ref="F4:F14" si="1">D4/E4</f>
         <v>0.12649999999999997</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>0.12649999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -512,8 +518,11 @@
         <f t="shared" si="1"/>
         <v>0.14745161290322581</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>0.14745161290322581</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -531,8 +540,11 @@
         <f t="shared" si="1"/>
         <v>0.161</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -550,8 +562,11 @@
         <f t="shared" si="1"/>
         <v>0.15896774193548388</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>0.15896774193548388</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -569,8 +584,11 @@
         <f t="shared" si="1"/>
         <v>0.1547</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>0.1547</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -588,8 +606,11 @@
         <f t="shared" si="1"/>
         <v>0.1607741935483871</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>0.1607741935483871</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>7</v>
       </c>
@@ -607,8 +628,11 @@
         <f t="shared" si="1"/>
         <v>0.15287096774193545</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>0.15287096774193545</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>8</v>
       </c>
@@ -626,8 +650,11 @@
         <f t="shared" si="1"/>
         <v>0.14349999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>0.14349999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>9</v>
       </c>
@@ -645,8 +672,11 @@
         <f t="shared" si="1"/>
         <v>0.12441935483870967</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>0.12441935483870967</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -664,8 +694,11 @@
         <f t="shared" si="1"/>
         <v>0.10919999999999999</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>0.10919999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>11</v>
       </c>
@@ -681,6 +714,9 @@
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
+        <v>0.1059032258064516</v>
+      </c>
+      <c r="G14">
         <v>0.1059032258064516</v>
       </c>
     </row>
